--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -4177,28 +4177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7559.403390397198</v>
+        <v>7717.860947028993</v>
       </c>
       <c r="AB2" t="n">
-        <v>10343.10921608256</v>
+        <v>10559.91783572022</v>
       </c>
       <c r="AC2" t="n">
-        <v>9355.977389144209</v>
+        <v>9552.09409841645</v>
       </c>
       <c r="AD2" t="n">
-        <v>7559403.390397198</v>
+        <v>7717860.947028993</v>
       </c>
       <c r="AE2" t="n">
-        <v>10343109.21608256</v>
+        <v>10559917.83572022</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.814953280364994e-07</v>
+        <v>1.075918600734969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.13229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9355977.389144208</v>
+        <v>9552094.09841645</v>
       </c>
     </row>
     <row r="3">
@@ -4283,28 +4283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2518.932305285998</v>
+        <v>2616.32642848628</v>
       </c>
       <c r="AB3" t="n">
-        <v>3446.514307542827</v>
+        <v>3579.773243630929</v>
       </c>
       <c r="AC3" t="n">
-        <v>3117.583819244021</v>
+        <v>3238.12470950196</v>
       </c>
       <c r="AD3" t="n">
-        <v>2518932.305285998</v>
+        <v>2616326.42848628</v>
       </c>
       <c r="AE3" t="n">
-        <v>3446514.307542827</v>
+        <v>3579773.243630929</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092674362015399e-06</v>
+        <v>2.02173364764298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.90729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3117583.819244021</v>
+        <v>3238124.70950196</v>
       </c>
     </row>
     <row r="4">
@@ -4389,28 +4389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1932.258030788986</v>
+        <v>2017.45655337559</v>
       </c>
       <c r="AB4" t="n">
-        <v>2643.800682933504</v>
+        <v>2760.373060230036</v>
       </c>
       <c r="AC4" t="n">
-        <v>2391.480056351892</v>
+        <v>2496.926929569604</v>
       </c>
       <c r="AD4" t="n">
-        <v>1932258.030788986</v>
+        <v>2017456.55337559</v>
       </c>
       <c r="AE4" t="n">
-        <v>2643800.682933504</v>
+        <v>2760373.060230036</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.278677007084776e-06</v>
+        <v>2.365887239197693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.884375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2391480.056351893</v>
+        <v>2496926.929569604</v>
       </c>
     </row>
     <row r="5">
@@ -4495,28 +4495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1702.928600533205</v>
+        <v>1763.906693110146</v>
       </c>
       <c r="AB5" t="n">
-        <v>2330.022039157124</v>
+        <v>2413.454955584478</v>
       </c>
       <c r="AC5" t="n">
-        <v>2107.648005946439</v>
+        <v>2183.1182019288</v>
       </c>
       <c r="AD5" t="n">
-        <v>1702928.600533205</v>
+        <v>1763906.693110146</v>
       </c>
       <c r="AE5" t="n">
-        <v>2330022.039157124</v>
+        <v>2413454.955584478</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378899608780982e-06</v>
+        <v>2.551325292058939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.01979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2107648.005946439</v>
+        <v>2183118.2019288</v>
       </c>
     </row>
     <row r="6">
@@ -4601,28 +4601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1560.683385956308</v>
+        <v>1621.746729879271</v>
       </c>
       <c r="AB6" t="n">
-        <v>2135.395861157044</v>
+        <v>2218.945422237047</v>
       </c>
       <c r="AC6" t="n">
-        <v>1931.59667721513</v>
+        <v>2007.172385448203</v>
       </c>
       <c r="AD6" t="n">
-        <v>1560683.385956308</v>
+        <v>1621746.729879271</v>
       </c>
       <c r="AE6" t="n">
-        <v>2135395.861157044</v>
+        <v>2218945.422237047</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.441046374898279e-06</v>
+        <v>2.666313080296043e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.54583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1931596.67721513</v>
+        <v>2007172.385448203</v>
       </c>
     </row>
     <row r="7">
@@ -4707,28 +4707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1475.581203212764</v>
+        <v>1536.473954935134</v>
       </c>
       <c r="AB7" t="n">
-        <v>2018.955300283999</v>
+        <v>2102.271449589156</v>
       </c>
       <c r="AC7" t="n">
-        <v>1826.269040046455</v>
+        <v>1901.633612996877</v>
       </c>
       <c r="AD7" t="n">
-        <v>1475581.203212763</v>
+        <v>1536473.954935134</v>
       </c>
       <c r="AE7" t="n">
-        <v>2018955.300283999</v>
+        <v>2102271.449589156</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.482623436737317e-06</v>
+        <v>2.743241530172978e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>1826269.040046455</v>
+        <v>1901633.612996877</v>
       </c>
     </row>
     <row r="8">
@@ -4813,28 +4813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1406.856643235888</v>
+        <v>1467.749394958259</v>
       </c>
       <c r="AB8" t="n">
-        <v>1924.923325410034</v>
+        <v>2008.23947471519</v>
       </c>
       <c r="AC8" t="n">
-        <v>1741.211344879755</v>
+        <v>1816.575917830177</v>
       </c>
       <c r="AD8" t="n">
-        <v>1406856.643235888</v>
+        <v>1467749.394958259</v>
       </c>
       <c r="AE8" t="n">
-        <v>1924923.325410034</v>
+        <v>2008239.47471519</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514426241933492e-06</v>
+        <v>2.802085046219196e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.034375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1741211.344879755</v>
+        <v>1816575.917830177</v>
       </c>
     </row>
     <row r="9">
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1339.967343705944</v>
+        <v>1400.945346774335</v>
       </c>
       <c r="AB9" t="n">
-        <v>1833.402434845536</v>
+        <v>1916.835228803342</v>
       </c>
       <c r="AC9" t="n">
-        <v>1658.425079660356</v>
+        <v>1733.895164861491</v>
       </c>
       <c r="AD9" t="n">
-        <v>1339967.343705944</v>
+        <v>1400945.346774335</v>
       </c>
       <c r="AE9" t="n">
-        <v>1833402.434845536</v>
+        <v>1916835.228803342</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.537767750334355e-06</v>
+        <v>2.845272947904493e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.882291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1658425.079660356</v>
+        <v>1733895.164861491</v>
       </c>
     </row>
     <row r="10">
@@ -5025,28 +5025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1291.040666203297</v>
+        <v>1352.018669271688</v>
       </c>
       <c r="AB10" t="n">
-        <v>1766.458796193743</v>
+        <v>1849.891590151549</v>
       </c>
       <c r="AC10" t="n">
-        <v>1597.870447925503</v>
+        <v>1673.340533126638</v>
       </c>
       <c r="AD10" t="n">
-        <v>1291040.666203297</v>
+        <v>1352018.669271688</v>
       </c>
       <c r="AE10" t="n">
-        <v>1766458.796193743</v>
+        <v>1849891.590151549</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.557316263620078e-06</v>
+        <v>2.881442815565929e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.758333333333335</v>
       </c>
       <c r="AH10" t="n">
-        <v>1597870.447925503</v>
+        <v>1673340.533126638</v>
       </c>
     </row>
     <row r="11">
@@ -5131,28 +5131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1251.616662759521</v>
+        <v>1312.594665827912</v>
       </c>
       <c r="AB11" t="n">
-        <v>1712.517135417688</v>
+        <v>1795.949929375493</v>
       </c>
       <c r="AC11" t="n">
-        <v>1549.076903546318</v>
+        <v>1624.546988747453</v>
       </c>
       <c r="AD11" t="n">
-        <v>1251616.662759521</v>
+        <v>1312594.665827912</v>
       </c>
       <c r="AE11" t="n">
-        <v>1712517.135417688</v>
+        <v>1795949.929375493</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571029399805585e-06</v>
+        <v>2.906815707806042e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.672916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1549076.903546318</v>
+        <v>1624546.988747453</v>
       </c>
     </row>
     <row r="12">
@@ -5237,28 +5237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1215.250732833271</v>
+        <v>1276.228735901662</v>
       </c>
       <c r="AB12" t="n">
-        <v>1662.759665740993</v>
+        <v>1746.192459698799</v>
       </c>
       <c r="AC12" t="n">
-        <v>1504.06821694052</v>
+        <v>1579.538302141654</v>
       </c>
       <c r="AD12" t="n">
-        <v>1215250.732833271</v>
+        <v>1276228.735901662</v>
       </c>
       <c r="AE12" t="n">
-        <v>1662759.665740993</v>
+        <v>1746192.459698799</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.582700154006017e-06</v>
+        <v>2.928409658648691e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.601041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1504068.21694052</v>
+        <v>1579538.302141654</v>
       </c>
     </row>
     <row r="13">
@@ -5343,28 +5343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1199.898118071375</v>
+        <v>1260.876121139766</v>
       </c>
       <c r="AB13" t="n">
-        <v>1641.753540914206</v>
+        <v>1725.186334872012</v>
       </c>
       <c r="AC13" t="n">
-        <v>1485.06688718492</v>
+        <v>1560.536972386055</v>
       </c>
       <c r="AD13" t="n">
-        <v>1199898.118071375</v>
+        <v>1260876.121139766</v>
       </c>
       <c r="AE13" t="n">
-        <v>1641753.540914206</v>
+        <v>1725186.334872012</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.587951993396211e-06</v>
+        <v>2.938126936527883e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.569791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1485066.88718492</v>
+        <v>1560536.972386055</v>
       </c>
     </row>
     <row r="14">
@@ -5449,28 +5449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1206.396895904136</v>
+        <v>1267.374898972527</v>
       </c>
       <c r="AB14" t="n">
-        <v>1650.645455450833</v>
+        <v>1734.078249408639</v>
       </c>
       <c r="AC14" t="n">
-        <v>1493.110169878052</v>
+        <v>1568.580255079186</v>
       </c>
       <c r="AD14" t="n">
-        <v>1206396.895904136</v>
+        <v>1267374.898972527</v>
       </c>
       <c r="AE14" t="n">
-        <v>1650645.455450833</v>
+        <v>1734078.249408639</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.587806108968706e-06</v>
+        <v>2.93785701214235e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.569791666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1493110.169878052</v>
+        <v>1568580.255079186</v>
       </c>
     </row>
     <row r="15">
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1211.276675268314</v>
+        <v>1272.254678336705</v>
       </c>
       <c r="AB15" t="n">
-        <v>1657.322184857573</v>
+        <v>1740.754978815379</v>
       </c>
       <c r="AC15" t="n">
-        <v>1499.149681601061</v>
+        <v>1574.619766802195</v>
       </c>
       <c r="AD15" t="n">
-        <v>1211276.675268314</v>
+        <v>1272254.678336705</v>
       </c>
       <c r="AE15" t="n">
-        <v>1657322.184857573</v>
+        <v>1740754.978815379</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.5876602245412e-06</v>
+        <v>2.937587087756817e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.571875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1499149.681601061</v>
+        <v>1574619.766802195</v>
       </c>
     </row>
   </sheetData>
@@ -5852,28 +5852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4538.06225976247</v>
+        <v>4667.377752367789</v>
       </c>
       <c r="AB2" t="n">
-        <v>6209.176988984495</v>
+        <v>6386.112150963996</v>
       </c>
       <c r="AC2" t="n">
-        <v>5616.581851790218</v>
+        <v>5776.630570240447</v>
       </c>
       <c r="AD2" t="n">
-        <v>4538062.25976247</v>
+        <v>4667377.752367789</v>
       </c>
       <c r="AE2" t="n">
-        <v>6209176.988984494</v>
+        <v>6386112.150963997</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.648392432002688e-07</v>
+        <v>1.457901637014679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.55520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5616581.851790218</v>
+        <v>5776630.570240447</v>
       </c>
     </row>
     <row r="3">
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1966.334751599639</v>
+        <v>2048.595395674089</v>
       </c>
       <c r="AB3" t="n">
-        <v>2690.42595570546</v>
+        <v>2802.97859801161</v>
       </c>
       <c r="AC3" t="n">
-        <v>2433.655478529475</v>
+        <v>2535.466254622552</v>
       </c>
       <c r="AD3" t="n">
-        <v>1966334.751599639</v>
+        <v>2048595.395674089</v>
       </c>
       <c r="AE3" t="n">
-        <v>2690425.95570546</v>
+        <v>2802978.59801161</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234337050145027e-06</v>
+        <v>2.352836915774084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.73541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2433655.478529475</v>
+        <v>2535466.254622552</v>
       </c>
     </row>
     <row r="4">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1573.702809719555</v>
+        <v>1632.521459891693</v>
       </c>
       <c r="AB4" t="n">
-        <v>2153.209611126358</v>
+        <v>2233.687883187583</v>
       </c>
       <c r="AC4" t="n">
-        <v>1947.710307889128</v>
+        <v>2020.507846616794</v>
       </c>
       <c r="AD4" t="n">
-        <v>1573702.809719556</v>
+        <v>1632521.459891693</v>
       </c>
       <c r="AE4" t="n">
-        <v>2153209.611126358</v>
+        <v>2233687.883187583</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.403060466462687e-06</v>
+        <v>2.674449786765088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.20416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1947710.307889128</v>
+        <v>2020507.846616794</v>
       </c>
     </row>
     <row r="5">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1392.920271170778</v>
+        <v>1451.824172688936</v>
       </c>
       <c r="AB5" t="n">
-        <v>1905.854966321207</v>
+        <v>1986.449883035082</v>
       </c>
       <c r="AC5" t="n">
-        <v>1723.962843219756</v>
+        <v>1796.865894198134</v>
       </c>
       <c r="AD5" t="n">
-        <v>1392920.271170778</v>
+        <v>1451824.172688936</v>
       </c>
       <c r="AE5" t="n">
-        <v>1905854.966321207</v>
+        <v>1986449.883035082</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.492402382795473e-06</v>
+        <v>2.844749267647624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.53333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1723962.843219756</v>
+        <v>1796865.894198134</v>
       </c>
     </row>
     <row r="6">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1291.558347590218</v>
+        <v>1350.291656907783</v>
       </c>
       <c r="AB6" t="n">
-        <v>1767.167110705818</v>
+        <v>1847.528615644846</v>
       </c>
       <c r="AC6" t="n">
-        <v>1598.511161894672</v>
+        <v>1671.203077590399</v>
       </c>
       <c r="AD6" t="n">
-        <v>1291558.347590218</v>
+        <v>1350291.656907783</v>
       </c>
       <c r="AE6" t="n">
-        <v>1767167.110705818</v>
+        <v>1847528.615644846</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.546731926511356e-06</v>
+        <v>2.948309762778895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.16354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1598511.161894672</v>
+        <v>1671203.077590399</v>
       </c>
     </row>
     <row r="7">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1203.482130452203</v>
+        <v>1273.893721539363</v>
       </c>
       <c r="AB7" t="n">
-        <v>1646.657344769121</v>
+        <v>1742.997590034738</v>
       </c>
       <c r="AC7" t="n">
-        <v>1489.502678882454</v>
+        <v>1576.648346354304</v>
       </c>
       <c r="AD7" t="n">
-        <v>1203482.130452203</v>
+        <v>1273893.721539363</v>
       </c>
       <c r="AE7" t="n">
-        <v>1646657.344769121</v>
+        <v>1742997.590034738</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.585215353310107e-06</v>
+        <v>3.021665113496879e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1489502.678882454</v>
+        <v>1576648.346354304</v>
       </c>
     </row>
     <row r="8">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1139.748432752225</v>
+        <v>1198.566993415812</v>
       </c>
       <c r="AB8" t="n">
-        <v>1559.454087843712</v>
+        <v>1639.932237435389</v>
       </c>
       <c r="AC8" t="n">
-        <v>1410.621978407466</v>
+        <v>1483.419406353906</v>
       </c>
       <c r="AD8" t="n">
-        <v>1139748.432752225</v>
+        <v>1198566.993415812</v>
       </c>
       <c r="AE8" t="n">
-        <v>1559454.087843712</v>
+        <v>1639932.237435389</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.612380125168049e-06</v>
+        <v>3.073445361062515e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>1410621.978407466</v>
+        <v>1483419.406353906</v>
       </c>
     </row>
     <row r="9">
@@ -6594,28 +6594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1097.95555295609</v>
+        <v>1156.774113619676</v>
       </c>
       <c r="AB9" t="n">
-        <v>1502.27122593491</v>
+        <v>1582.749375526587</v>
       </c>
       <c r="AC9" t="n">
-        <v>1358.89656858259</v>
+        <v>1431.693996529029</v>
       </c>
       <c r="AD9" t="n">
-        <v>1097955.55295609</v>
+        <v>1156774.113619676</v>
       </c>
       <c r="AE9" t="n">
-        <v>1502271.22593491</v>
+        <v>1582749.375526587</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.62792441128676e-06</v>
+        <v>3.10307516939174e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.65625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1358896.56858259</v>
+        <v>1431693.996529029</v>
       </c>
     </row>
     <row r="10">
@@ -6700,28 +6700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1089.861779910368</v>
+        <v>1148.680340573954</v>
       </c>
       <c r="AB10" t="n">
-        <v>1491.196968581687</v>
+        <v>1571.675118173364</v>
       </c>
       <c r="AC10" t="n">
-        <v>1348.87922280834</v>
+        <v>1421.67665075478</v>
       </c>
       <c r="AD10" t="n">
-        <v>1089861.779910368</v>
+        <v>1148680.340573954</v>
       </c>
       <c r="AE10" t="n">
-        <v>1491196.968581687</v>
+        <v>1571675.118173364</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63365919645677e-06</v>
+        <v>3.11400655498893e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.622916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1348879.22280834</v>
+        <v>1421676.65075478</v>
       </c>
     </row>
     <row r="11">
@@ -6806,28 +6806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1094.001883649701</v>
+        <v>1152.820444313287</v>
       </c>
       <c r="AB11" t="n">
-        <v>1496.861641166329</v>
+        <v>1577.339790758005</v>
       </c>
       <c r="AC11" t="n">
-        <v>1354.003266991921</v>
+        <v>1426.800694938361</v>
       </c>
       <c r="AD11" t="n">
-        <v>1094001.883649701</v>
+        <v>1152820.444313287</v>
       </c>
       <c r="AE11" t="n">
-        <v>1496861.641166329</v>
+        <v>1577339.790758005</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.633357365658348e-06</v>
+        <v>3.113431218904868e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.623958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1354003.266991921</v>
+        <v>1426800.694938361</v>
       </c>
     </row>
   </sheetData>
@@ -7103,28 +7103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1447.603191661434</v>
+        <v>1510.38393611713</v>
       </c>
       <c r="AB2" t="n">
-        <v>1980.674550576713</v>
+        <v>2066.573934831967</v>
       </c>
       <c r="AC2" t="n">
-        <v>1791.641751363862</v>
+        <v>1869.343018946338</v>
       </c>
       <c r="AD2" t="n">
-        <v>1447603.191661434</v>
+        <v>1510383.93611713</v>
       </c>
       <c r="AE2" t="n">
-        <v>1980674.550576713</v>
+        <v>2066573.934831967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341639617326198e-06</v>
+        <v>2.857341273880216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>1791641.751363862</v>
+        <v>1869343.018946338</v>
       </c>
     </row>
     <row r="3">
@@ -7209,28 +7209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>920.3133990091322</v>
+        <v>972.5453601190662</v>
       </c>
       <c r="AB3" t="n">
-        <v>1259.213393885959</v>
+        <v>1330.679467388065</v>
       </c>
       <c r="AC3" t="n">
-        <v>1139.035834890581</v>
+        <v>1203.68128664091</v>
       </c>
       <c r="AD3" t="n">
-        <v>920313.3990091323</v>
+        <v>972545.3601190662</v>
       </c>
       <c r="AE3" t="n">
-        <v>1259213.393885959</v>
+        <v>1330679.467388065</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.675912824354251e-06</v>
+        <v>3.569255724570843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1139035.834890581</v>
+        <v>1203681.28664091</v>
       </c>
     </row>
     <row r="4">
@@ -7315,28 +7315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>841.2779944496535</v>
+        <v>893.5099555595873</v>
       </c>
       <c r="AB4" t="n">
-        <v>1151.073666571717</v>
+        <v>1222.539740073823</v>
       </c>
       <c r="AC4" t="n">
-        <v>1041.216811376149</v>
+        <v>1105.862263126478</v>
       </c>
       <c r="AD4" t="n">
-        <v>841277.9944496535</v>
+        <v>893509.9555595873</v>
       </c>
       <c r="AE4" t="n">
-        <v>1151073.666571717</v>
+        <v>1222539.740073823</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.738557475746914e-06</v>
+        <v>3.70267243774813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.08958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1041216.811376149</v>
+        <v>1105862.263126478</v>
       </c>
     </row>
     <row r="5">
@@ -7421,28 +7421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>848.4172906362727</v>
+        <v>900.6492517462068</v>
       </c>
       <c r="AB5" t="n">
-        <v>1160.841966577768</v>
+        <v>1232.308040079874</v>
       </c>
       <c r="AC5" t="n">
-        <v>1050.052838539518</v>
+        <v>1114.698290289847</v>
       </c>
       <c r="AD5" t="n">
-        <v>848417.2906362728</v>
+        <v>900649.2517462068</v>
       </c>
       <c r="AE5" t="n">
-        <v>1160841.966577768</v>
+        <v>1232308.040079874</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.738389076146396e-06</v>
+        <v>3.702313790669696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.090625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1050052.838539518</v>
+        <v>1114698.290289847</v>
       </c>
     </row>
   </sheetData>
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2198.302315398004</v>
+        <v>2275.104977229958</v>
       </c>
       <c r="AB2" t="n">
-        <v>3007.814210181213</v>
+        <v>3112.899000394004</v>
       </c>
       <c r="AC2" t="n">
-        <v>2720.752643455162</v>
+        <v>2815.808288777469</v>
       </c>
       <c r="AD2" t="n">
-        <v>2198302.315398004</v>
+        <v>2275104.977229958</v>
       </c>
       <c r="AE2" t="n">
-        <v>3007814.210181213</v>
+        <v>3112899.000394004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108385572176012e-06</v>
+        <v>2.25040591550359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2720752.643455162</v>
+        <v>2815808.288777469</v>
       </c>
     </row>
     <row r="3">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1264.913990866254</v>
+        <v>1319.773060605807</v>
       </c>
       <c r="AB3" t="n">
-        <v>1730.711126370033</v>
+        <v>1805.771725799036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1565.534485537598</v>
+        <v>1633.43140670531</v>
       </c>
       <c r="AD3" t="n">
-        <v>1264913.990866254</v>
+        <v>1319773.060605807</v>
       </c>
       <c r="AE3" t="n">
-        <v>1730711.126370033</v>
+        <v>1805771.725799036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.498898163303141e-06</v>
+        <v>3.043281488058925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1565534.485537598</v>
+        <v>1633431.40670531</v>
       </c>
     </row>
     <row r="4">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1047.206412694095</v>
+        <v>1101.980141579076</v>
       </c>
       <c r="AB4" t="n">
-        <v>1432.834013334394</v>
+        <v>1507.777845641199</v>
       </c>
       <c r="AC4" t="n">
-        <v>1296.086346096926</v>
+        <v>1363.877644232699</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047206.412694095</v>
+        <v>1101980.141579076</v>
       </c>
       <c r="AE4" t="n">
-        <v>1432834.013334394</v>
+        <v>1507777.845641199</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634868718959617e-06</v>
+        <v>3.319348725367796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.26458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1296086.346096926</v>
+        <v>1363877.644232699</v>
       </c>
     </row>
     <row r="5">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>932.3320069214922</v>
+        <v>987.1909871524938</v>
       </c>
       <c r="AB5" t="n">
-        <v>1275.65778345521</v>
+        <v>1350.718260414664</v>
       </c>
       <c r="AC5" t="n">
-        <v>1153.910794999188</v>
+        <v>1221.807605385673</v>
       </c>
       <c r="AD5" t="n">
-        <v>932332.0069214922</v>
+        <v>987190.9871524938</v>
       </c>
       <c r="AE5" t="n">
-        <v>1275657.78345521</v>
+        <v>1350718.260414664</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.69850422782728e-06</v>
+        <v>3.448550809179412e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.880208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1153910.794999188</v>
+        <v>1221807.605385673</v>
       </c>
     </row>
     <row r="6">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>924.5620508880702</v>
+        <v>979.4210311190722</v>
       </c>
       <c r="AB6" t="n">
-        <v>1265.026586824014</v>
+        <v>1340.087063783469</v>
       </c>
       <c r="AC6" t="n">
-        <v>1144.294224853496</v>
+        <v>1212.191035239981</v>
       </c>
       <c r="AD6" t="n">
-        <v>924562.0508880701</v>
+        <v>979421.0311190721</v>
       </c>
       <c r="AE6" t="n">
-        <v>1265026.586824014</v>
+        <v>1340087.063783469</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.706237150423857e-06</v>
+        <v>3.464251315566647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.835416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1144294.224853496</v>
+        <v>1212191.035239981</v>
       </c>
     </row>
     <row r="7">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>930.3660482996258</v>
+        <v>985.2250285306277</v>
       </c>
       <c r="AB7" t="n">
-        <v>1272.967872136799</v>
+        <v>1348.028349096254</v>
       </c>
       <c r="AC7" t="n">
-        <v>1151.477605041692</v>
+        <v>1219.374415428178</v>
       </c>
       <c r="AD7" t="n">
-        <v>930366.0482996259</v>
+        <v>985225.0285306277</v>
       </c>
       <c r="AE7" t="n">
-        <v>1272967.872136799</v>
+        <v>1348028.349096254</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.705914945315666e-06</v>
+        <v>3.463597127800512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.8375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1151477.605041692</v>
+        <v>1219374.415428178</v>
       </c>
     </row>
   </sheetData>
@@ -8545,28 +8545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1006.724309545501</v>
+        <v>1067.003239327462</v>
       </c>
       <c r="AB2" t="n">
-        <v>1377.444613862141</v>
+        <v>1459.920904908517</v>
       </c>
       <c r="AC2" t="n">
-        <v>1245.983233170795</v>
+        <v>1320.588102755906</v>
       </c>
       <c r="AD2" t="n">
-        <v>1006724.309545501</v>
+        <v>1067003.239327462</v>
       </c>
       <c r="AE2" t="n">
-        <v>1377444.613862141</v>
+        <v>1459920.904908517</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546265744678271e-06</v>
+        <v>3.443231790524642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.78229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1245983.233170795</v>
+        <v>1320588.102755906</v>
       </c>
     </row>
     <row r="3">
@@ -8651,28 +8651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>776.220376975944</v>
+        <v>826.3675671148908</v>
       </c>
       <c r="AB3" t="n">
-        <v>1062.058964204669</v>
+        <v>1130.672562090666</v>
       </c>
       <c r="AC3" t="n">
-        <v>960.697547270093</v>
+        <v>1022.76275967364</v>
       </c>
       <c r="AD3" t="n">
-        <v>776220.3769759439</v>
+        <v>826367.5671148908</v>
       </c>
       <c r="AE3" t="n">
-        <v>1062058.964204669</v>
+        <v>1130672.562090666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.743724632331451e-06</v>
+        <v>3.882934164860387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>960697.547270093</v>
+        <v>1022762.75967364</v>
       </c>
     </row>
     <row r="4">
@@ -8757,28 +8757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>782.3440819352459</v>
+        <v>832.4912720741928</v>
       </c>
       <c r="AB4" t="n">
-        <v>1070.437687488782</v>
+        <v>1139.051285374779</v>
       </c>
       <c r="AC4" t="n">
-        <v>968.2766169635821</v>
+        <v>1030.341829367129</v>
       </c>
       <c r="AD4" t="n">
-        <v>782344.0819352459</v>
+        <v>832491.2720741928</v>
       </c>
       <c r="AE4" t="n">
-        <v>1070437.687488782</v>
+        <v>1139051.285374779</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.744948912414332e-06</v>
+        <v>3.885660397473629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.440625</v>
       </c>
       <c r="AH4" t="n">
-        <v>968276.6169635821</v>
+        <v>1030341.829367129</v>
       </c>
     </row>
   </sheetData>
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5126.369705555326</v>
+        <v>5257.019239158835</v>
       </c>
       <c r="AB2" t="n">
-        <v>7014.125190611072</v>
+        <v>7192.885646338036</v>
       </c>
       <c r="AC2" t="n">
-        <v>6344.706926805421</v>
+        <v>6506.406735529671</v>
       </c>
       <c r="AD2" t="n">
-        <v>5126369.705555325</v>
+        <v>5257019.239158835</v>
       </c>
       <c r="AE2" t="n">
-        <v>7014125.190611072</v>
+        <v>7192885.646338036</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.165407000043364e-07</v>
+        <v>1.354809122657768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.74375</v>
       </c>
       <c r="AH2" t="n">
-        <v>6344706.926805421</v>
+        <v>6506406.735529671</v>
       </c>
     </row>
     <row r="3">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2104.573130606119</v>
+        <v>2175.836602080222</v>
       </c>
       <c r="AB3" t="n">
-        <v>2879.569804508988</v>
+        <v>2977.075630102328</v>
       </c>
       <c r="AC3" t="n">
-        <v>2604.747703868253</v>
+        <v>2692.947710317251</v>
       </c>
       <c r="AD3" t="n">
-        <v>2104573.13060612</v>
+        <v>2175836.602080222</v>
       </c>
       <c r="AE3" t="n">
-        <v>2879569.804508988</v>
+        <v>2977075.630102328</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.197375254484391e-06</v>
+        <v>2.263953628887099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.01145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2604747.703868253</v>
+        <v>2692947.710317251</v>
       </c>
     </row>
     <row r="4">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1659.333460509866</v>
+        <v>1730.426250274825</v>
       </c>
       <c r="AB4" t="n">
-        <v>2270.373245295353</v>
+        <v>2367.645536644299</v>
       </c>
       <c r="AC4" t="n">
-        <v>2053.692009253227</v>
+        <v>2141.680769638348</v>
       </c>
       <c r="AD4" t="n">
-        <v>1659333.460509866</v>
+        <v>1730426.250274825</v>
       </c>
       <c r="AE4" t="n">
-        <v>2270373.245295353</v>
+        <v>2367645.536644299</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.370864549413431e-06</v>
+        <v>2.591980884633918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2053692.009253227</v>
+        <v>2141680.769638347</v>
       </c>
     </row>
     <row r="5">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1467.714397930351</v>
+        <v>1538.89243904133</v>
       </c>
       <c r="AB5" t="n">
-        <v>2008.191590237647</v>
+        <v>2105.580526239242</v>
       </c>
       <c r="AC5" t="n">
-        <v>1816.532603379964</v>
+        <v>1904.626876015797</v>
       </c>
       <c r="AD5" t="n">
-        <v>1467714.397930351</v>
+        <v>1538892.43904133</v>
       </c>
       <c r="AE5" t="n">
-        <v>2008191.590237647</v>
+        <v>2105580.526239242</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461946429251177e-06</v>
+        <v>2.764195193900999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1816532.603379964</v>
+        <v>1904626.876015797</v>
       </c>
     </row>
     <row r="6">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1356.988609266751</v>
+        <v>1416.28950955869</v>
       </c>
       <c r="AB6" t="n">
-        <v>1856.691681311072</v>
+        <v>1937.829789261583</v>
       </c>
       <c r="AC6" t="n">
-        <v>1679.491633129884</v>
+        <v>1752.886033935648</v>
       </c>
       <c r="AD6" t="n">
-        <v>1356988.609266751</v>
+        <v>1416289.50955869</v>
       </c>
       <c r="AE6" t="n">
-        <v>1856691.681311072</v>
+        <v>1937829.789261583</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.5199756072102e-06</v>
+        <v>2.873914655305969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>1679491.633129884</v>
+        <v>1752886.033935648</v>
       </c>
     </row>
     <row r="7">
@@ -9584,28 +9584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1282.566117853828</v>
+        <v>1341.867018145767</v>
       </c>
       <c r="AB7" t="n">
-        <v>1754.863545271313</v>
+        <v>1836.001653221824</v>
       </c>
       <c r="AC7" t="n">
-        <v>1587.381831477073</v>
+        <v>1660.776232282837</v>
       </c>
       <c r="AD7" t="n">
-        <v>1282566.117853828</v>
+        <v>1341867.018145767</v>
       </c>
       <c r="AE7" t="n">
-        <v>1754863.545271313</v>
+        <v>1836001.653221824</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.557365541462148e-06</v>
+        <v>2.944610184561749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.003125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1587381.831477073</v>
+        <v>1660776.232282837</v>
       </c>
     </row>
     <row r="8">
@@ -9690,28 +9690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1205.902498914139</v>
+        <v>1265.288650552098</v>
       </c>
       <c r="AB8" t="n">
-        <v>1649.968999677862</v>
+        <v>1731.223752281023</v>
       </c>
       <c r="AC8" t="n">
-        <v>1492.498274094642</v>
+        <v>1565.998187151118</v>
       </c>
       <c r="AD8" t="n">
-        <v>1205902.498914138</v>
+        <v>1265288.650552098</v>
       </c>
       <c r="AE8" t="n">
-        <v>1649968.999677862</v>
+        <v>1731223.752281023</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.586828809652684e-06</v>
+        <v>3.000318261615304e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1492498.274094642</v>
+        <v>1565998.187151118</v>
       </c>
     </row>
     <row r="9">
@@ -9796,28 +9796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1153.599012254382</v>
+        <v>1212.985163892341</v>
       </c>
       <c r="AB9" t="n">
-        <v>1578.405061763005</v>
+        <v>1659.659814366166</v>
       </c>
       <c r="AC9" t="n">
-        <v>1427.764297973761</v>
+        <v>1501.264211030238</v>
       </c>
       <c r="AD9" t="n">
-        <v>1153599.012254382</v>
+        <v>1212985.163892342</v>
       </c>
       <c r="AE9" t="n">
-        <v>1578405.061763005</v>
+        <v>1659659.814366166</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.606869814411728e-06</v>
+        <v>3.038211065296402e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.695833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1427764.297973761</v>
+        <v>1501264.211030238</v>
       </c>
     </row>
     <row r="10">
@@ -9902,28 +9902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1119.40023757356</v>
+        <v>1178.786389211519</v>
       </c>
       <c r="AB10" t="n">
-        <v>1531.612789501247</v>
+        <v>1612.867542104407</v>
       </c>
       <c r="AC10" t="n">
-        <v>1385.437814503298</v>
+        <v>1458.937727559775</v>
       </c>
       <c r="AD10" t="n">
-        <v>1119400.23757356</v>
+        <v>1178786.389211519</v>
       </c>
       <c r="AE10" t="n">
-        <v>1531612.789501247</v>
+        <v>1612867.542104407</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.619283272583375e-06</v>
+        <v>3.061681981009321e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.620833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1385437.814503298</v>
+        <v>1458937.727559775</v>
       </c>
     </row>
     <row r="11">
@@ -10008,28 +10008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1119.852748688675</v>
+        <v>1179.238900326634</v>
       </c>
       <c r="AB11" t="n">
-        <v>1532.231935172328</v>
+        <v>1613.486687775489</v>
       </c>
       <c r="AC11" t="n">
-        <v>1385.997869780508</v>
+        <v>1459.497782836985</v>
       </c>
       <c r="AD11" t="n">
-        <v>1119852.748688675</v>
+        <v>1179238.900326634</v>
       </c>
       <c r="AE11" t="n">
-        <v>1532231.935172328</v>
+        <v>1613486.687775489</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.621526668638492e-06</v>
+        <v>3.065923712764668e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.608333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1385997.869780508</v>
+        <v>1459497.782836985</v>
       </c>
     </row>
     <row r="12">
@@ -10114,28 +10114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1125.931934167347</v>
+        <v>1185.318085805306</v>
       </c>
       <c r="AB12" t="n">
-        <v>1540.549744938983</v>
+        <v>1621.804497542143</v>
       </c>
       <c r="AC12" t="n">
-        <v>1393.521839457152</v>
+        <v>1467.021752513629</v>
       </c>
       <c r="AD12" t="n">
-        <v>1125931.934167347</v>
+        <v>1185318.085805306</v>
       </c>
       <c r="AE12" t="n">
-        <v>1540549.744938983</v>
+        <v>1621804.497542143</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.621227549164476e-06</v>
+        <v>3.065358148530622e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1393521.839457152</v>
+        <v>1467021.752513629</v>
       </c>
     </row>
   </sheetData>
@@ -10411,28 +10411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>811.6954323094021</v>
+        <v>860.6934667419471</v>
       </c>
       <c r="AB2" t="n">
-        <v>1110.597499960892</v>
+        <v>1177.638772312218</v>
       </c>
       <c r="AC2" t="n">
-        <v>1004.603633298005</v>
+        <v>1065.246580709137</v>
       </c>
       <c r="AD2" t="n">
-        <v>811695.4323094022</v>
+        <v>860693.4667419471</v>
       </c>
       <c r="AE2" t="n">
-        <v>1110597.499960892</v>
+        <v>1177638.772312218</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.667438851432087e-06</v>
+        <v>3.822714865423866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.18125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1004603.633298005</v>
+        <v>1065246.580709137</v>
       </c>
     </row>
     <row r="3">
@@ -10517,28 +10517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>743.0635897303561</v>
+        <v>801.7757827845769</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.69238512104</v>
+        <v>1097.024997856975</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.6606908218113</v>
+        <v>992.3264717457595</v>
       </c>
       <c r="AD3" t="n">
-        <v>743063.589730356</v>
+        <v>801775.7827845769</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016692.38512104</v>
+        <v>1097024.997856975</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.73420084065323e-06</v>
+        <v>3.975771181954899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>919660.6908218113</v>
+        <v>992326.4717457595</v>
       </c>
     </row>
   </sheetData>
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3167.213142581627</v>
+        <v>3269.770758581541</v>
       </c>
       <c r="AB2" t="n">
-        <v>4333.520749262804</v>
+        <v>4473.844603996585</v>
       </c>
       <c r="AC2" t="n">
-        <v>3919.93561108757</v>
+        <v>4046.867154071321</v>
       </c>
       <c r="AD2" t="n">
-        <v>3167213.142581627</v>
+        <v>3269770.758581541</v>
       </c>
       <c r="AE2" t="n">
-        <v>4333520.749262804</v>
+        <v>4473844.603996585</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.231419076767149e-07</v>
+        <v>1.809345381285957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3919935.61108757</v>
+        <v>4046867.154071321</v>
       </c>
     </row>
     <row r="3">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1599.395098091723</v>
+        <v>1678.991451049178</v>
       </c>
       <c r="AB3" t="n">
-        <v>2188.362933540925</v>
+        <v>2297.270175200575</v>
       </c>
       <c r="AC3" t="n">
-        <v>1979.508646550445</v>
+        <v>2078.021933918373</v>
       </c>
       <c r="AD3" t="n">
-        <v>1599395.098091722</v>
+        <v>1678991.451049178</v>
       </c>
       <c r="AE3" t="n">
-        <v>2188362.933540924</v>
+        <v>2297270.175200575</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.355714046325295e-06</v>
+        <v>2.65718079491869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.946875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1979508.646550445</v>
+        <v>2078021.933918373</v>
       </c>
     </row>
     <row r="4">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1306.247317838028</v>
+        <v>1374.533720983398</v>
       </c>
       <c r="AB4" t="n">
-        <v>1787.265207830504</v>
+        <v>1880.697677197488</v>
       </c>
       <c r="AC4" t="n">
-        <v>1616.691124837634</v>
+        <v>1701.206530461528</v>
       </c>
       <c r="AD4" t="n">
-        <v>1306247.317838028</v>
+        <v>1374533.720983398</v>
       </c>
       <c r="AE4" t="n">
-        <v>1787265.207830504</v>
+        <v>1880697.677197488</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50949328612524e-06</v>
+        <v>2.958585979707609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.73020833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1616691.124837634</v>
+        <v>1701206.530461528</v>
       </c>
     </row>
     <row r="5">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1168.357832629235</v>
+        <v>1225.249034616499</v>
       </c>
       <c r="AB5" t="n">
-        <v>1598.598730913081</v>
+        <v>1676.43978333475</v>
       </c>
       <c r="AC5" t="n">
-        <v>1446.030711682146</v>
+        <v>1516.442723311294</v>
       </c>
       <c r="AD5" t="n">
-        <v>1168357.832629235</v>
+        <v>1225249.034616499</v>
       </c>
       <c r="AE5" t="n">
-        <v>1598598.730913081</v>
+        <v>1676439.78333475</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.590814360357162e-06</v>
+        <v>3.117974161350282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.18125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1446030.711682146</v>
+        <v>1516442.723311295</v>
       </c>
     </row>
     <row r="6">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1063.381782637515</v>
+        <v>1120.3582359708</v>
       </c>
       <c r="AB6" t="n">
-        <v>1454.965868097939</v>
+        <v>1532.923565172258</v>
       </c>
       <c r="AC6" t="n">
-        <v>1316.105967704092</v>
+        <v>1386.623491583953</v>
       </c>
       <c r="AD6" t="n">
-        <v>1063381.782637516</v>
+        <v>1120358.2359708</v>
       </c>
       <c r="AE6" t="n">
-        <v>1454965.868097939</v>
+        <v>1532923.565172258</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639327123570087e-06</v>
+        <v>3.213058506804421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.880208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1316105.967704092</v>
+        <v>1386623.491583953</v>
       </c>
     </row>
     <row r="7">
@@ -11344,28 +11344,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1011.5488765162</v>
+        <v>1068.525329849485</v>
       </c>
       <c r="AB7" t="n">
-        <v>1384.045799236325</v>
+        <v>1462.003496310644</v>
       </c>
       <c r="AC7" t="n">
-        <v>1251.954410677689</v>
+        <v>1322.47193455755</v>
       </c>
       <c r="AD7" t="n">
-        <v>1011548.8765162</v>
+        <v>1068525.329849485</v>
       </c>
       <c r="AE7" t="n">
-        <v>1384045.799236325</v>
+        <v>1462003.496310644</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.665293891059056e-06</v>
+        <v>3.263953012223783e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.726041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1251954.410677689</v>
+        <v>1322471.934557549</v>
       </c>
     </row>
     <row r="8">
@@ -11450,28 +11450,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1005.472968409317</v>
+        <v>1062.449421742602</v>
       </c>
       <c r="AB8" t="n">
-        <v>1375.732473714339</v>
+        <v>1453.690170788658</v>
       </c>
       <c r="AC8" t="n">
-        <v>1244.434497275696</v>
+        <v>1314.952021155557</v>
       </c>
       <c r="AD8" t="n">
-        <v>1005472.968409317</v>
+        <v>1062449.421742602</v>
       </c>
       <c r="AE8" t="n">
-        <v>1375732.47371434</v>
+        <v>1453690.170788658</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.6693366213268e-06</v>
+        <v>3.271876707678295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.702083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1244434.497275696</v>
+        <v>1314952.021155557</v>
       </c>
     </row>
     <row r="9">
@@ -11556,28 +11556,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1011.853395849137</v>
+        <v>1068.829849182422</v>
       </c>
       <c r="AB9" t="n">
-        <v>1384.462456022094</v>
+        <v>1462.420153096413</v>
       </c>
       <c r="AC9" t="n">
-        <v>1252.331302324606</v>
+        <v>1322.848826204466</v>
       </c>
       <c r="AD9" t="n">
-        <v>1011853.395849137</v>
+        <v>1068829.849182422</v>
       </c>
       <c r="AE9" t="n">
-        <v>1384462.456022094</v>
+        <v>1462420.153096413</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.669492110952482e-06</v>
+        <v>3.272181465195776e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.702083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1252331.302324606</v>
+        <v>1322848.826204466</v>
       </c>
     </row>
   </sheetData>
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4027.403678490979</v>
+        <v>4143.691858950432</v>
       </c>
       <c r="AB2" t="n">
-        <v>5510.47138942219</v>
+        <v>5669.582008199267</v>
       </c>
       <c r="AC2" t="n">
-        <v>4984.559734010696</v>
+        <v>5128.48505864484</v>
       </c>
       <c r="AD2" t="n">
-        <v>4027403.678490979</v>
+        <v>4143691.858950432</v>
       </c>
       <c r="AE2" t="n">
-        <v>5510471.389422189</v>
+        <v>5669582.008199267</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.147616769845483e-07</v>
+        <v>1.566544786812712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4984559.734010696</v>
+        <v>5128485.05864484</v>
       </c>
     </row>
     <row r="3">
@@ -11959,28 +11959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1843.2848090045</v>
+        <v>1913.074821254508</v>
       </c>
       <c r="AB3" t="n">
-        <v>2522.063595666455</v>
+        <v>2617.553369344955</v>
       </c>
       <c r="AC3" t="n">
-        <v>2281.361385834536</v>
+        <v>2367.737749533899</v>
       </c>
       <c r="AD3" t="n">
-        <v>1843284.809004501</v>
+        <v>1913074.821254508</v>
       </c>
       <c r="AE3" t="n">
-        <v>2522063.595666455</v>
+        <v>2617553.369344955</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273636428494918e-06</v>
+        <v>2.448824685443955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.459375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2281361.385834536</v>
+        <v>2367737.749533899</v>
       </c>
     </row>
     <row r="4">
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1487.265975826265</v>
+        <v>1545.495451664839</v>
       </c>
       <c r="AB4" t="n">
-        <v>2034.942921669578</v>
+        <v>2114.615059415085</v>
       </c>
       <c r="AC4" t="n">
-        <v>1840.730825285761</v>
+        <v>1912.799166025384</v>
       </c>
       <c r="AD4" t="n">
-        <v>1487265.975826265</v>
+        <v>1545495.451664839</v>
       </c>
       <c r="AE4" t="n">
-        <v>2034942.921669578</v>
+        <v>2114615.059415085</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.436954401144028e-06</v>
+        <v>2.762836654677917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1840730.825285761</v>
+        <v>1912799.166025385</v>
       </c>
     </row>
     <row r="5">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1320.958488332705</v>
+        <v>1379.102623316707</v>
       </c>
       <c r="AB5" t="n">
-        <v>1807.393680312358</v>
+        <v>1886.949050935667</v>
       </c>
       <c r="AC5" t="n">
-        <v>1634.898564156308</v>
+        <v>1706.861281863993</v>
       </c>
       <c r="AD5" t="n">
-        <v>1320958.488332705</v>
+        <v>1379102.623316707</v>
       </c>
       <c r="AE5" t="n">
-        <v>1807393.680312358</v>
+        <v>1886949.050935667</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522269759990577e-06</v>
+        <v>2.926872758009091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.425</v>
       </c>
       <c r="AH5" t="n">
-        <v>1634898.564156308</v>
+        <v>1706861.281863993</v>
       </c>
     </row>
     <row r="6">
@@ -12277,28 +12277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1224.428534047037</v>
+        <v>1282.572669031039</v>
       </c>
       <c r="AB6" t="n">
-        <v>1675.317138257681</v>
+        <v>1754.87250888099</v>
       </c>
       <c r="AC6" t="n">
-        <v>1515.427221904739</v>
+        <v>1587.389939612423</v>
       </c>
       <c r="AD6" t="n">
-        <v>1224428.534047037</v>
+        <v>1282572.669031039</v>
       </c>
       <c r="AE6" t="n">
-        <v>1675317.138257681</v>
+        <v>1754872.50888099</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.575591859269671e-06</v>
+        <v>3.029395322591075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.07291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1515427.221904739</v>
+        <v>1587389.939612423</v>
       </c>
     </row>
     <row r="7">
@@ -12383,28 +12383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1142.028029078078</v>
+        <v>1200.257415408101</v>
       </c>
       <c r="AB7" t="n">
-        <v>1562.573132105436</v>
+        <v>1642.245147381395</v>
       </c>
       <c r="AC7" t="n">
-        <v>1413.443345462458</v>
+        <v>1485.511575420855</v>
       </c>
       <c r="AD7" t="n">
-        <v>1142028.029078078</v>
+        <v>1200257.415408101</v>
       </c>
       <c r="AE7" t="n">
-        <v>1562573.132105436</v>
+        <v>1642245.147381395</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.611850886779454e-06</v>
+        <v>3.099110666506824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.845833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1413443.345462458</v>
+        <v>1485511.575420855</v>
       </c>
     </row>
     <row r="8">
@@ -12489,28 +12489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1076.393009606031</v>
+        <v>1134.622395936054</v>
       </c>
       <c r="AB8" t="n">
-        <v>1472.768402851084</v>
+        <v>1552.440418127043</v>
       </c>
       <c r="AC8" t="n">
-        <v>1332.209453526412</v>
+        <v>1404.277683484809</v>
       </c>
       <c r="AD8" t="n">
-        <v>1076393.009606031</v>
+        <v>1134622.395936054</v>
       </c>
       <c r="AE8" t="n">
-        <v>1472768.402851084</v>
+        <v>1552440.418127043</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.638054889853751e-06</v>
+        <v>3.149493183958541e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.688541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1332209.453526412</v>
+        <v>1404277.683484809</v>
       </c>
     </row>
     <row r="9">
@@ -12595,28 +12595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1061.958702887951</v>
+        <v>1120.188089217974</v>
       </c>
       <c r="AB9" t="n">
-        <v>1453.018747602737</v>
+        <v>1532.690762878696</v>
       </c>
       <c r="AC9" t="n">
-        <v>1314.344677656152</v>
+        <v>1386.412907614549</v>
       </c>
       <c r="AD9" t="n">
-        <v>1061958.702887951</v>
+        <v>1120188.089217974</v>
       </c>
       <c r="AE9" t="n">
-        <v>1453018.747602738</v>
+        <v>1532690.762878696</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.643691797491827e-06</v>
+        <v>3.160331283642923e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.655208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1314344.677656152</v>
+        <v>1386412.907614549</v>
       </c>
     </row>
     <row r="10">
@@ -12701,28 +12701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1065.792805374779</v>
+        <v>1124.022191704802</v>
       </c>
       <c r="AB10" t="n">
-        <v>1458.264735773879</v>
+        <v>1537.936751049837</v>
       </c>
       <c r="AC10" t="n">
-        <v>1319.08999607903</v>
+        <v>1391.158226037427</v>
       </c>
       <c r="AD10" t="n">
-        <v>1065792.805374779</v>
+        <v>1124022.191704802</v>
       </c>
       <c r="AE10" t="n">
-        <v>1458264.735773879</v>
+        <v>1537936.751049837</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.644910588332492e-06</v>
+        <v>3.162674656547654e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.647916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1319089.99607903</v>
+        <v>1391158.226037427</v>
       </c>
     </row>
   </sheetData>
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6603.903771037844</v>
+        <v>6760.854958694485</v>
       </c>
       <c r="AB2" t="n">
-        <v>9035.752483206868</v>
+        <v>9250.500022356411</v>
       </c>
       <c r="AC2" t="n">
-        <v>8173.392947967523</v>
+        <v>8367.645283380689</v>
       </c>
       <c r="AD2" t="n">
-        <v>6603903.771037844</v>
+        <v>6760854.958694485</v>
       </c>
       <c r="AE2" t="n">
-        <v>9035752.483206868</v>
+        <v>9250500.022356411</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.254063415189744e-07</v>
+        <v>1.165084579415151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.49166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8173392.947967524</v>
+        <v>8367645.283380689</v>
       </c>
     </row>
     <row r="3">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2380.756886675702</v>
+        <v>2465.40687475129</v>
       </c>
       <c r="AB3" t="n">
-        <v>3257.456603930966</v>
+        <v>3373.278452109897</v>
       </c>
       <c r="AC3" t="n">
-        <v>2946.569517520729</v>
+        <v>3051.337491066443</v>
       </c>
       <c r="AD3" t="n">
-        <v>2380756.886675702</v>
+        <v>2465406.87475129</v>
       </c>
       <c r="AE3" t="n">
-        <v>3257456.603930966</v>
+        <v>3373278.452109897</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.124937341316754e-06</v>
+        <v>2.095672944398284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.61666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2946569.517520729</v>
+        <v>3051337.491066443</v>
       </c>
     </row>
     <row r="4">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1836.628804876538</v>
+        <v>1909.185937512755</v>
       </c>
       <c r="AB4" t="n">
-        <v>2512.956557176398</v>
+        <v>2612.232427044048</v>
       </c>
       <c r="AC4" t="n">
-        <v>2273.123510316162</v>
+        <v>2362.924630498201</v>
       </c>
       <c r="AD4" t="n">
-        <v>1836628.804876538</v>
+        <v>1909185.937512755</v>
       </c>
       <c r="AE4" t="n">
-        <v>2512956.557176398</v>
+        <v>2612232.427044048</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.30933883491299e-06</v>
+        <v>2.43919894077416e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.69895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2273123.510316162</v>
+        <v>2362924.630498201</v>
       </c>
     </row>
     <row r="5">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1617.349227853106</v>
+        <v>1689.821019634751</v>
       </c>
       <c r="AB5" t="n">
-        <v>2212.928565960751</v>
+        <v>2312.087668706203</v>
       </c>
       <c r="AC5" t="n">
-        <v>2001.729769490206</v>
+        <v>2091.425266640306</v>
       </c>
       <c r="AD5" t="n">
-        <v>1617349.227853106</v>
+        <v>1689821.019634751</v>
       </c>
       <c r="AE5" t="n">
-        <v>2212928.565960751</v>
+        <v>2312087.668706203</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404921746266702e-06</v>
+        <v>2.617262655004079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.903125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2001729.769490206</v>
+        <v>2091425.266640306</v>
       </c>
     </row>
     <row r="6">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1492.534143172726</v>
+        <v>1552.913169023553</v>
       </c>
       <c r="AB6" t="n">
-        <v>2042.151060648146</v>
+        <v>2124.764307551871</v>
       </c>
       <c r="AC6" t="n">
-        <v>1847.251029596901</v>
+        <v>1921.979784164555</v>
       </c>
       <c r="AD6" t="n">
-        <v>1492534.143172726</v>
+        <v>1552913.169023553</v>
       </c>
       <c r="AE6" t="n">
-        <v>2042151.060648146</v>
+        <v>2124764.307551871</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466830062697336e-06</v>
+        <v>2.73259315298992e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1847251.029596901</v>
+        <v>1921979.784164555</v>
       </c>
     </row>
     <row r="7">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1414.34063139727</v>
+        <v>1474.719657248098</v>
       </c>
       <c r="AB7" t="n">
-        <v>1935.163248182693</v>
+        <v>2017.776495086418</v>
       </c>
       <c r="AC7" t="n">
-        <v>1750.473983794813</v>
+        <v>1825.202738362467</v>
       </c>
       <c r="AD7" t="n">
-        <v>1414340.631397271</v>
+        <v>1474719.657248097</v>
       </c>
       <c r="AE7" t="n">
-        <v>1935163.248182693</v>
+        <v>2017776.495086418</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.506092581668783e-06</v>
+        <v>2.805736247912056e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.17083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1750473.983794813</v>
+        <v>1825202.738362467</v>
       </c>
     </row>
     <row r="8">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1329.312846437153</v>
+        <v>1401.699297364228</v>
       </c>
       <c r="AB8" t="n">
-        <v>1818.824481639132</v>
+        <v>1917.866817262385</v>
       </c>
       <c r="AC8" t="n">
-        <v>1645.238425847685</v>
+        <v>1734.828299965847</v>
       </c>
       <c r="AD8" t="n">
-        <v>1329312.846437153</v>
+        <v>1401699.297364227</v>
       </c>
       <c r="AE8" t="n">
-        <v>1818824.481639132</v>
+        <v>1917866.817262386</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.538002568997638e-06</v>
+        <v>2.865182134047275e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.959375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1645238.425847685</v>
+        <v>1734828.299965847</v>
       </c>
     </row>
     <row r="9">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1278.173918425587</v>
+        <v>1338.638195622435</v>
       </c>
       <c r="AB9" t="n">
-        <v>1748.853944243429</v>
+        <v>1831.583835799804</v>
       </c>
       <c r="AC9" t="n">
-        <v>1581.945778336763</v>
+        <v>1656.780045155129</v>
       </c>
       <c r="AD9" t="n">
-        <v>1278173.918425587</v>
+        <v>1338638.195622435</v>
       </c>
       <c r="AE9" t="n">
-        <v>1748853.944243429</v>
+        <v>1831583.835799804</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.560354265191121e-06</v>
+        <v>2.906821648759502e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.816666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1581945.778336763</v>
+        <v>1656780.045155129</v>
       </c>
     </row>
     <row r="10">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1232.399973334427</v>
+        <v>1292.864250531275</v>
       </c>
       <c r="AB10" t="n">
-        <v>1686.22401316577</v>
+        <v>1768.953904722145</v>
       </c>
       <c r="AC10" t="n">
-        <v>1525.293159979494</v>
+        <v>1600.127426797861</v>
       </c>
       <c r="AD10" t="n">
-        <v>1232399.973334427</v>
+        <v>1292864.250531275</v>
       </c>
       <c r="AE10" t="n">
-        <v>1686224.01316577</v>
+        <v>1768953.904722145</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.578735594297604e-06</v>
+        <v>2.941064670726795e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1525293.159979495</v>
+        <v>1600127.426797861</v>
       </c>
     </row>
     <row r="11">
@@ -13952,28 +13952,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1189.268355408858</v>
+        <v>1249.732632605706</v>
       </c>
       <c r="AB11" t="n">
-        <v>1627.209430687318</v>
+        <v>1709.939322243693</v>
       </c>
       <c r="AC11" t="n">
-        <v>1471.9108464253</v>
+        <v>1546.745113243666</v>
       </c>
       <c r="AD11" t="n">
-        <v>1189268.355408858</v>
+        <v>1249732.632605706</v>
       </c>
       <c r="AE11" t="n">
-        <v>1627209.430687319</v>
+        <v>1709939.322243693</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.592411303152827e-06</v>
+        <v>2.96654147907046e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.61875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1471910.8464253</v>
+        <v>1546745.113243666</v>
       </c>
     </row>
     <row r="12">
@@ -14058,28 +14058,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1175.470307944584</v>
+        <v>1235.934585141432</v>
       </c>
       <c r="AB12" t="n">
-        <v>1608.330333419806</v>
+        <v>1691.060224976181</v>
       </c>
       <c r="AC12" t="n">
-        <v>1454.833543704019</v>
+        <v>1529.667810522386</v>
       </c>
       <c r="AD12" t="n">
-        <v>1175470.307944584</v>
+        <v>1235934.585141432</v>
       </c>
       <c r="AE12" t="n">
-        <v>1608330.333419806</v>
+        <v>1691060.224976181</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.597558075302642e-06</v>
+        <v>2.976129525221302e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.588541666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1454833.543704019</v>
+        <v>1529667.810522386</v>
       </c>
     </row>
     <row r="13">
@@ -14164,28 +14164,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1175.498016675224</v>
+        <v>1235.962293872072</v>
       </c>
       <c r="AB13" t="n">
-        <v>1608.368245727491</v>
+        <v>1691.098137283865</v>
       </c>
       <c r="AC13" t="n">
-        <v>1454.867837714268</v>
+        <v>1529.702104532635</v>
       </c>
       <c r="AD13" t="n">
-        <v>1175498.016675224</v>
+        <v>1235962.293872071</v>
       </c>
       <c r="AE13" t="n">
-        <v>1608368.245727491</v>
+        <v>1691098.137283865</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.598587429732605e-06</v>
+        <v>2.97804713445147e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.581250000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>1454867.837714269</v>
+        <v>1529702.104532635</v>
       </c>
     </row>
     <row r="14">
@@ -14270,28 +14270,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1181.143518243942</v>
+        <v>1241.607795440789</v>
       </c>
       <c r="AB14" t="n">
-        <v>1616.092670035762</v>
+        <v>1698.822561592136</v>
       </c>
       <c r="AC14" t="n">
-        <v>1461.855053807856</v>
+        <v>1536.689320626223</v>
       </c>
       <c r="AD14" t="n">
-        <v>1181143.518243942</v>
+        <v>1241607.79544079</v>
       </c>
       <c r="AE14" t="n">
-        <v>1616092.670035762</v>
+        <v>1698822.561592137</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.598734480365457e-06</v>
+        <v>2.978321078627208e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.581250000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>1461855.053807856</v>
+        <v>1536689.320626223</v>
       </c>
     </row>
   </sheetData>
@@ -14567,28 +14567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2482.294752043239</v>
+        <v>2582.208421736078</v>
       </c>
       <c r="AB2" t="n">
-        <v>3396.385190861308</v>
+        <v>3533.091481615072</v>
       </c>
       <c r="AC2" t="n">
-        <v>3072.238955101931</v>
+        <v>3195.898189334634</v>
       </c>
       <c r="AD2" t="n">
-        <v>2482294.752043239</v>
+        <v>2582208.421736078</v>
       </c>
       <c r="AE2" t="n">
-        <v>3396385.190861308</v>
+        <v>3533091.481615072</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042810636440385e-06</v>
+        <v>2.090311162473453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3072238.955101931</v>
+        <v>3195898.189334634</v>
       </c>
     </row>
     <row r="3">
@@ -14673,28 +14673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1377.542433634674</v>
+        <v>1444.094742368736</v>
       </c>
       <c r="AB3" t="n">
-        <v>1884.814330581998</v>
+        <v>1975.874135472585</v>
       </c>
       <c r="AC3" t="n">
-        <v>1704.930296224779</v>
+        <v>1787.299481139847</v>
       </c>
       <c r="AD3" t="n">
-        <v>1377542.433634674</v>
+        <v>1444094.742368736</v>
       </c>
       <c r="AE3" t="n">
-        <v>1884814.330581998</v>
+        <v>1975874.135472585</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446889815167857e-06</v>
+        <v>2.900286807428841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1704930.296224779</v>
+        <v>1787299.481139847</v>
       </c>
     </row>
     <row r="4">
@@ -14779,28 +14779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1135.519560851262</v>
+        <v>1191.036726950786</v>
       </c>
       <c r="AB4" t="n">
-        <v>1553.667958744152</v>
+        <v>1629.62899464603</v>
       </c>
       <c r="AC4" t="n">
-        <v>1405.388069348285</v>
+        <v>1474.099490595672</v>
       </c>
       <c r="AD4" t="n">
-        <v>1135519.560851261</v>
+        <v>1191036.726950786</v>
       </c>
       <c r="AE4" t="n">
-        <v>1553667.958744152</v>
+        <v>1629628.99464603</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.590544735794199e-06</v>
+        <v>3.188242715851958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.41875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1405388.069348285</v>
+        <v>1474099.490595672</v>
       </c>
     </row>
     <row r="5">
@@ -14885,28 +14885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1004.032066349507</v>
+        <v>1070.584285575017</v>
       </c>
       <c r="AB5" t="n">
-        <v>1373.760967947995</v>
+        <v>1464.820650369034</v>
       </c>
       <c r="AC5" t="n">
-        <v>1242.651149252666</v>
+        <v>1325.020223386507</v>
       </c>
       <c r="AD5" t="n">
-        <v>1004032.066349507</v>
+        <v>1070584.285575018</v>
       </c>
       <c r="AE5" t="n">
-        <v>1373760.967947995</v>
+        <v>1464820.650369033</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.663724429579489e-06</v>
+        <v>3.334931218481674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.960416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1242651.149252666</v>
+        <v>1325020.223386507</v>
       </c>
     </row>
     <row r="6">
@@ -14991,28 +14991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>950.5802862973175</v>
+        <v>1006.182703742863</v>
       </c>
       <c r="AB6" t="n">
-        <v>1300.625884354482</v>
+        <v>1376.703564909011</v>
       </c>
       <c r="AC6" t="n">
-        <v>1176.495975391583</v>
+        <v>1245.312908889683</v>
       </c>
       <c r="AD6" t="n">
-        <v>950580.2862973175</v>
+        <v>1006182.703742863</v>
       </c>
       <c r="AE6" t="n">
-        <v>1300625.884354482</v>
+        <v>1376703.56490901</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.693155393384443e-06</v>
+        <v>3.393925507582755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.7875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1176495.975391584</v>
+        <v>1245312.908889682</v>
       </c>
     </row>
     <row r="7">
@@ -15097,28 +15097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>954.3481476430911</v>
+        <v>1009.950565088637</v>
       </c>
       <c r="AB7" t="n">
-        <v>1305.781238474081</v>
+        <v>1381.858919028609</v>
       </c>
       <c r="AC7" t="n">
-        <v>1181.159309749592</v>
+        <v>1249.976243247692</v>
       </c>
       <c r="AD7" t="n">
-        <v>954348.1476430912</v>
+        <v>1009950.565088637</v>
       </c>
       <c r="AE7" t="n">
-        <v>1305781.238474081</v>
+        <v>1381858.919028609</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.694428083711143e-06</v>
+        <v>3.396476611976316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.779166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1181159.309749592</v>
+        <v>1249976.243247692</v>
       </c>
     </row>
     <row r="8">
@@ -15203,28 +15203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>959.6732028507021</v>
+        <v>1015.275620296247</v>
       </c>
       <c r="AB8" t="n">
-        <v>1313.06721393399</v>
+        <v>1389.144894488518</v>
       </c>
       <c r="AC8" t="n">
-        <v>1187.749921937538</v>
+        <v>1256.566855435638</v>
       </c>
       <c r="AD8" t="n">
-        <v>959673.2028507021</v>
+        <v>1015275.620296247</v>
       </c>
       <c r="AE8" t="n">
-        <v>1313067.21393399</v>
+        <v>1389144.894488518</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.694905342583656e-06</v>
+        <v>3.3974332761239e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.777083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1187749.921937538</v>
+        <v>1256566.855435638</v>
       </c>
     </row>
   </sheetData>
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1673.207725161474</v>
+        <v>1747.724468209578</v>
       </c>
       <c r="AB2" t="n">
-        <v>2289.35662628104</v>
+        <v>2391.313721566144</v>
       </c>
       <c r="AC2" t="n">
-        <v>2070.863643000983</v>
+        <v>2163.090096209758</v>
       </c>
       <c r="AD2" t="n">
-        <v>1673207.725161474</v>
+        <v>1747724.468209578</v>
       </c>
       <c r="AE2" t="n">
-        <v>2289356.62628104</v>
+        <v>2391313.721566143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256618209691598e-06</v>
+        <v>2.628923880960041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2070863.643000983</v>
+        <v>2163090.096209758</v>
       </c>
     </row>
     <row r="3">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1033.348271678208</v>
+        <v>1097.134424864869</v>
       </c>
       <c r="AB3" t="n">
-        <v>1413.872693418424</v>
+        <v>1501.147722254886</v>
       </c>
       <c r="AC3" t="n">
-        <v>1278.934667941357</v>
+        <v>1357.88029051694</v>
       </c>
       <c r="AD3" t="n">
-        <v>1033348.271678208</v>
+        <v>1097134.424864869</v>
       </c>
       <c r="AE3" t="n">
-        <v>1413872.693418424</v>
+        <v>1501147.722254886</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.611911555541365e-06</v>
+        <v>3.372219779783505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.709375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1278934.667941357</v>
+        <v>1357880.29051694</v>
       </c>
     </row>
     <row r="4">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>881.4918271141571</v>
+        <v>934.632820802497</v>
       </c>
       <c r="AB4" t="n">
-        <v>1206.096006532378</v>
+        <v>1278.805858511945</v>
       </c>
       <c r="AC4" t="n">
-        <v>1090.987896435304</v>
+        <v>1156.758422190859</v>
       </c>
       <c r="AD4" t="n">
-        <v>881491.8271141571</v>
+        <v>934632.820802497</v>
       </c>
       <c r="AE4" t="n">
-        <v>1206096.006532378</v>
+        <v>1278805.858511945</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.721946435039614e-06</v>
+        <v>3.602419629045996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>1090987.896435304</v>
+        <v>1156758.422190859</v>
       </c>
     </row>
     <row r="5">
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>864.6813921659425</v>
+        <v>928.3822044980316</v>
       </c>
       <c r="AB5" t="n">
-        <v>1183.095227812182</v>
+        <v>1270.253489526446</v>
       </c>
       <c r="AC5" t="n">
-        <v>1070.182279754368</v>
+        <v>1149.022279298011</v>
       </c>
       <c r="AD5" t="n">
-        <v>864681.3921659425</v>
+        <v>928382.2044980315</v>
       </c>
       <c r="AE5" t="n">
-        <v>1183095.227812182</v>
+        <v>1270253.489526446</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.729072187778205e-06</v>
+        <v>3.617327149404862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.983333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1070182.279754368</v>
+        <v>1149022.279298011</v>
       </c>
     </row>
   </sheetData>
@@ -29016,28 +29016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1225.430591724178</v>
+        <v>1286.937651595521</v>
       </c>
       <c r="AB2" t="n">
-        <v>1676.688197779209</v>
+        <v>1760.844870595154</v>
       </c>
       <c r="AC2" t="n">
-        <v>1516.667429429827</v>
+        <v>1592.792307506849</v>
       </c>
       <c r="AD2" t="n">
-        <v>1225430.591724178</v>
+        <v>1286937.651595521</v>
       </c>
       <c r="AE2" t="n">
-        <v>1676688.197779209</v>
+        <v>1760844.870595154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43585348817722e-06</v>
+        <v>3.121338389943097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1516667.429429827</v>
+        <v>1592792.307506849</v>
       </c>
     </row>
     <row r="3">
@@ -29122,28 +29122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>823.0325879720962</v>
+        <v>874.2742626405458</v>
       </c>
       <c r="AB3" t="n">
-        <v>1126.109496498599</v>
+        <v>1196.220616403111</v>
       </c>
       <c r="AC3" t="n">
-        <v>1018.635186657377</v>
+        <v>1082.054999679777</v>
       </c>
       <c r="AD3" t="n">
-        <v>823032.5879720962</v>
+        <v>874274.2626405457</v>
       </c>
       <c r="AE3" t="n">
-        <v>1126109.496498599</v>
+        <v>1196220.616403111</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.730875438171609e-06</v>
+        <v>3.762673558172809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1018635.186657377</v>
+        <v>1082054.999679777</v>
       </c>
     </row>
     <row r="4">
@@ -29228,28 +29228,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>812.433376675603</v>
+        <v>863.6750513440525</v>
       </c>
       <c r="AB4" t="n">
-        <v>1111.607187998536</v>
+        <v>1181.718307903048</v>
       </c>
       <c r="AC4" t="n">
-        <v>1005.516958126442</v>
+        <v>1068.936771148842</v>
       </c>
       <c r="AD4" t="n">
-        <v>812433.376675603</v>
+        <v>863675.0513440524</v>
       </c>
       <c r="AE4" t="n">
-        <v>1111607.187998536</v>
+        <v>1181718.307903048</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.744075141919179e-06</v>
+        <v>3.791367810324865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.23854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1005516.958126442</v>
+        <v>1068936.771148842</v>
       </c>
     </row>
   </sheetData>
@@ -29525,28 +29525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>708.8084442761049</v>
+        <v>765.7121161217561</v>
       </c>
       <c r="AB2" t="n">
-        <v>969.8229838801734</v>
+        <v>1047.681098112219</v>
       </c>
       <c r="AC2" t="n">
-        <v>877.2644394537556</v>
+        <v>947.6918845380445</v>
       </c>
       <c r="AD2" t="n">
-        <v>708808.4442761049</v>
+        <v>765712.1161217561</v>
       </c>
       <c r="AE2" t="n">
-        <v>969822.9838801734</v>
+        <v>1047681.098112219</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695477270033141e-06</v>
+        <v>4.032738402814305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>877264.4394537556</v>
+        <v>947691.8845380446</v>
       </c>
     </row>
     <row r="3">
@@ -29631,28 +29631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>717.5812489806963</v>
+        <v>774.4849208263475</v>
       </c>
       <c r="AB3" t="n">
-        <v>981.8263223058236</v>
+        <v>1059.684436537869</v>
       </c>
       <c r="AC3" t="n">
-        <v>888.1221961068532</v>
+        <v>958.5496411911422</v>
       </c>
       <c r="AD3" t="n">
-        <v>717581.2489806963</v>
+        <v>774484.9208263475</v>
       </c>
       <c r="AE3" t="n">
-        <v>981826.3223058237</v>
+        <v>1059684.43653787</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69639722514439e-06</v>
+        <v>4.034926540851643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.29791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>888122.1961068532</v>
+        <v>958549.6411911421</v>
       </c>
     </row>
   </sheetData>
@@ -29928,28 +29928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3573.41492684503</v>
+        <v>3677.038982209392</v>
       </c>
       <c r="AB2" t="n">
-        <v>4889.303950849989</v>
+        <v>5031.086954970195</v>
       </c>
       <c r="AC2" t="n">
-        <v>4422.675643961875</v>
+        <v>4550.927077162539</v>
       </c>
       <c r="AD2" t="n">
-        <v>3573414.92684503</v>
+        <v>3677038.982209392</v>
       </c>
       <c r="AE2" t="n">
-        <v>4889303.950849988</v>
+        <v>5031086.954970195</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.673636955199855e-07</v>
+        <v>1.683187074650615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4422675.643961875</v>
+        <v>4550927.077162539</v>
       </c>
     </row>
     <row r="3">
@@ -30034,28 +30034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1725.95865422007</v>
+        <v>1795.012940680971</v>
       </c>
       <c r="AB3" t="n">
-        <v>2361.532774625756</v>
+        <v>2456.015895821671</v>
       </c>
       <c r="AC3" t="n">
-        <v>2136.151401047538</v>
+        <v>2221.617185764409</v>
       </c>
       <c r="AD3" t="n">
-        <v>1725958.65422007</v>
+        <v>1795012.940680971</v>
       </c>
       <c r="AE3" t="n">
-        <v>2361532.774625756</v>
+        <v>2456015.895821671</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.313585926672719e-06</v>
+        <v>2.54911620654467e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.20208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2136151.401047539</v>
+        <v>2221617.185764409</v>
       </c>
     </row>
     <row r="4">
@@ -30140,28 +30140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1392.416238466572</v>
+        <v>1461.470435418922</v>
       </c>
       <c r="AB4" t="n">
-        <v>1905.16532653896</v>
+        <v>1999.648325265326</v>
       </c>
       <c r="AC4" t="n">
-        <v>1723.33902169041</v>
+        <v>1808.804695626054</v>
       </c>
       <c r="AD4" t="n">
-        <v>1392416.238466572</v>
+        <v>1461470.435418922</v>
       </c>
       <c r="AE4" t="n">
-        <v>1905165.32653896</v>
+        <v>1999648.325265326</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.47207175359938e-06</v>
+        <v>2.856670346493248e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.88854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1723339.02169041</v>
+        <v>1808804.695626054</v>
       </c>
     </row>
     <row r="5">
@@ -30246,28 +30246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1246.491839060281</v>
+        <v>1304.022869220029</v>
       </c>
       <c r="AB5" t="n">
-        <v>1705.505125541123</v>
+        <v>1784.22161909561</v>
       </c>
       <c r="AC5" t="n">
-        <v>1542.734110050955</v>
+        <v>1613.938011939894</v>
       </c>
       <c r="AD5" t="n">
-        <v>1246491.839060281</v>
+        <v>1304022.869220029</v>
       </c>
       <c r="AE5" t="n">
-        <v>1705505.125541123</v>
+        <v>1784221.61909561</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555469149904476e-06</v>
+        <v>3.018509515281723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.30416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1542734.110050955</v>
+        <v>1613938.011939894</v>
       </c>
     </row>
     <row r="6">
@@ -30352,28 +30352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1140.672515337877</v>
+        <v>1209.641371435655</v>
       </c>
       <c r="AB6" t="n">
-        <v>1560.718458405047</v>
+        <v>1655.084690009215</v>
       </c>
       <c r="AC6" t="n">
-        <v>1411.765679216982</v>
+        <v>1497.125730120687</v>
       </c>
       <c r="AD6" t="n">
-        <v>1140672.515337877</v>
+        <v>1209641.371435655</v>
       </c>
       <c r="AE6" t="n">
-        <v>1560718.458405047</v>
+        <v>1655084.690009215</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.607169380824242e-06</v>
+        <v>3.118837856080482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.972916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1411765.679216982</v>
+        <v>1497125.730120687</v>
       </c>
     </row>
     <row r="7">
@@ -30458,28 +30458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1067.183646623259</v>
+        <v>1124.799928129027</v>
       </c>
       <c r="AB7" t="n">
-        <v>1460.167746129635</v>
+        <v>1539.000884336771</v>
       </c>
       <c r="AC7" t="n">
-        <v>1320.811385797325</v>
+        <v>1392.120799936977</v>
       </c>
       <c r="AD7" t="n">
-        <v>1067183.646623259</v>
+        <v>1124799.928129027</v>
       </c>
       <c r="AE7" t="n">
-        <v>1460167.746129635</v>
+        <v>1539000.884336771</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.641943940907179e-06</v>
+        <v>3.186320609117743e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.761458333333332</v>
       </c>
       <c r="AH7" t="n">
-        <v>1320811.385797325</v>
+        <v>1392120.799936977</v>
       </c>
     </row>
     <row r="8">
@@ -30564,28 +30564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1036.921138277121</v>
+        <v>1094.537419782889</v>
       </c>
       <c r="AB8" t="n">
-        <v>1418.761247122807</v>
+        <v>1497.594385329944</v>
       </c>
       <c r="AC8" t="n">
-        <v>1283.356664941322</v>
+        <v>1354.666079080974</v>
       </c>
       <c r="AD8" t="n">
-        <v>1036921.138277121</v>
+        <v>1094537.419782889</v>
       </c>
       <c r="AE8" t="n">
-        <v>1418761.247122807</v>
+        <v>1497594.385329944</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.655176738106881e-06</v>
+        <v>3.211999886822188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.683333333333332</v>
       </c>
       <c r="AH8" t="n">
-        <v>1283356.664941322</v>
+        <v>1354666.079080974</v>
       </c>
     </row>
     <row r="9">
@@ -30670,28 +30670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1038.862765634806</v>
+        <v>1096.479047140574</v>
       </c>
       <c r="AB9" t="n">
-        <v>1421.417867332145</v>
+        <v>1500.251005539281</v>
       </c>
       <c r="AC9" t="n">
-        <v>1285.75974104647</v>
+        <v>1357.069155186123</v>
       </c>
       <c r="AD9" t="n">
-        <v>1038862.765634806</v>
+        <v>1096479.047140574</v>
       </c>
       <c r="AE9" t="n">
-        <v>1421417.867332145</v>
+        <v>1500251.005539281</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.655946086781282e-06</v>
+        <v>3.213492868084074e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.679166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1285759.741046471</v>
+        <v>1357069.155186123</v>
       </c>
     </row>
     <row r="10">
@@ -30776,28 +30776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1044.749441732119</v>
+        <v>1102.365723237887</v>
       </c>
       <c r="AB10" t="n">
-        <v>1429.472277270309</v>
+        <v>1508.305415477446</v>
       </c>
       <c r="AC10" t="n">
-        <v>1293.045449404572</v>
+        <v>1364.354863544224</v>
       </c>
       <c r="AD10" t="n">
-        <v>1044749.441732119</v>
+        <v>1102365.723237887</v>
       </c>
       <c r="AE10" t="n">
-        <v>1429472.277270309</v>
+        <v>1508305.415477446</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656253826251042e-06</v>
+        <v>3.214090060588829e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.678125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1293045.449404572</v>
+        <v>1364354.863544224</v>
       </c>
     </row>
   </sheetData>
@@ -31073,28 +31073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5819.704680442285</v>
+        <v>5951.559907696206</v>
       </c>
       <c r="AB2" t="n">
-        <v>7962.776691031781</v>
+        <v>8143.186830002684</v>
       </c>
       <c r="AC2" t="n">
-        <v>7202.820459466682</v>
+        <v>7366.012507981418</v>
       </c>
       <c r="AD2" t="n">
-        <v>5819704.680442286</v>
+        <v>5951559.907696206</v>
       </c>
       <c r="AE2" t="n">
-        <v>7962776.69103178</v>
+        <v>8143186.830002684</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.699009060714056e-07</v>
+        <v>1.256996854516093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7202820.459466682</v>
+        <v>7366012.507981418</v>
       </c>
     </row>
     <row r="3">
@@ -31179,28 +31179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2239.231110429944</v>
+        <v>2322.968333158223</v>
       </c>
       <c r="AB3" t="n">
-        <v>3063.814793194917</v>
+        <v>3178.387755557296</v>
       </c>
       <c r="AC3" t="n">
-        <v>2771.408609423347</v>
+        <v>2875.046889062019</v>
       </c>
       <c r="AD3" t="n">
-        <v>2239231.110429944</v>
+        <v>2322968.333158223</v>
       </c>
       <c r="AE3" t="n">
-        <v>3063814.793194917</v>
+        <v>3178387.755557296</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.160687094450412e-06</v>
+        <v>2.177904244610884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2771408.609423347</v>
+        <v>2875046.889062019</v>
       </c>
     </row>
     <row r="4">
@@ -31285,28 +31285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1747.62149033626</v>
+        <v>1819.542474561007</v>
       </c>
       <c r="AB4" t="n">
-        <v>2391.172822696807</v>
+        <v>2489.578286242995</v>
       </c>
       <c r="AC4" t="n">
-        <v>2162.962644530757</v>
+        <v>2251.976428749033</v>
       </c>
       <c r="AD4" t="n">
-        <v>1747621.49033626</v>
+        <v>1819542.474561007</v>
       </c>
       <c r="AE4" t="n">
-        <v>2391172.822696807</v>
+        <v>2489578.286242995</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.339356990824039e-06</v>
+        <v>2.513159049766239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2162962.644530757</v>
+        <v>2251976.428749033</v>
       </c>
     </row>
     <row r="5">
@@ -31391,28 +31391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1543.337852717276</v>
+        <v>1615.173496087451</v>
       </c>
       <c r="AB5" t="n">
-        <v>2111.662937348481</v>
+        <v>2209.951633772472</v>
       </c>
       <c r="AC5" t="n">
-        <v>1910.128790345488</v>
+        <v>1999.036951531825</v>
       </c>
       <c r="AD5" t="n">
-        <v>1543337.852717276</v>
+        <v>1615173.496087451</v>
       </c>
       <c r="AE5" t="n">
-        <v>2111662.937348481</v>
+        <v>2209951.633772472</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432472920220418e-06</v>
+        <v>2.687881056104465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.78229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1910128.790345488</v>
+        <v>1999036.951531825</v>
       </c>
     </row>
     <row r="6">
@@ -31497,28 +31497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1427.053828173815</v>
+        <v>1486.902730348417</v>
       </c>
       <c r="AB6" t="n">
-        <v>1952.55800487902</v>
+        <v>2034.445913181527</v>
       </c>
       <c r="AC6" t="n">
-        <v>1766.208609325736</v>
+        <v>1840.281250590254</v>
       </c>
       <c r="AD6" t="n">
-        <v>1427053.828173816</v>
+        <v>1486902.730348417</v>
       </c>
       <c r="AE6" t="n">
-        <v>1952558.004879019</v>
+        <v>2034445.913181527</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.492078976935935e-06</v>
+        <v>2.799725397741355e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.35104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1766208.609325737</v>
+        <v>1840281.250590254</v>
       </c>
     </row>
     <row r="7">
@@ -31603,28 +31603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1345.296469666559</v>
+        <v>1405.145371841161</v>
       </c>
       <c r="AB7" t="n">
-        <v>1840.693980089295</v>
+        <v>1922.581888391803</v>
       </c>
       <c r="AC7" t="n">
-        <v>1665.020730059799</v>
+        <v>1739.093371324316</v>
       </c>
       <c r="AD7" t="n">
-        <v>1345296.469666559</v>
+        <v>1405145.371841161</v>
       </c>
       <c r="AE7" t="n">
-        <v>1840693.980089295</v>
+        <v>1922581.888391803</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.532557716944234e-06</v>
+        <v>2.875679390942527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1665020.730059799</v>
+        <v>1739093.371324316</v>
       </c>
     </row>
     <row r="8">
@@ -31709,28 +31709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1274.344413112635</v>
+        <v>1334.278566633257</v>
       </c>
       <c r="AB8" t="n">
-        <v>1743.614246128398</v>
+        <v>1825.618799083555</v>
       </c>
       <c r="AC8" t="n">
-        <v>1577.206149655867</v>
+        <v>1651.384303171097</v>
       </c>
       <c r="AD8" t="n">
-        <v>1274344.413112635</v>
+        <v>1334278.566633257</v>
       </c>
       <c r="AE8" t="n">
-        <v>1743614.246128398</v>
+        <v>1825618.799083555</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.560433186253978e-06</v>
+        <v>2.927984704941869e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.897916666666665</v>
       </c>
       <c r="AH8" t="n">
-        <v>1577206.149655867</v>
+        <v>1651384.303171097</v>
       </c>
     </row>
     <row r="9">
@@ -31815,28 +31815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1217.876795362228</v>
+        <v>1277.810948882851</v>
       </c>
       <c r="AB9" t="n">
-        <v>1666.352760346815</v>
+        <v>1748.357313301972</v>
       </c>
       <c r="AC9" t="n">
-        <v>1507.318391640102</v>
+        <v>1581.496545155332</v>
       </c>
       <c r="AD9" t="n">
-        <v>1217876.795362229</v>
+        <v>1277810.948882851</v>
       </c>
       <c r="AE9" t="n">
-        <v>1666352.760346815</v>
+        <v>1748357.313301972</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.583712168603073e-06</v>
+        <v>2.971665206526426e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.752083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1507318.391640102</v>
+        <v>1581496.545155332</v>
       </c>
     </row>
     <row r="10">
@@ -31921,28 +31921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1168.715566020654</v>
+        <v>1228.649719541276</v>
       </c>
       <c r="AB10" t="n">
-        <v>1599.088197521303</v>
+        <v>1681.09275047646</v>
       </c>
       <c r="AC10" t="n">
-        <v>1446.47346428425</v>
+        <v>1520.65161779948</v>
       </c>
       <c r="AD10" t="n">
-        <v>1168715.566020654</v>
+        <v>1228649.719541276</v>
       </c>
       <c r="AE10" t="n">
-        <v>1599088.197521303</v>
+        <v>1681092.75047646</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.601356747581049e-06</v>
+        <v>3.004773357408988e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.644791666666668</v>
       </c>
       <c r="AH10" t="n">
-        <v>1446473.46428425</v>
+        <v>1520651.61779948</v>
       </c>
     </row>
     <row r="11">
@@ -32027,28 +32027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1142.92655832013</v>
+        <v>1202.860711840752</v>
       </c>
       <c r="AB11" t="n">
-        <v>1563.802539454724</v>
+        <v>1645.80709240988</v>
       </c>
       <c r="AC11" t="n">
-        <v>1414.555419899813</v>
+        <v>1488.733573415043</v>
       </c>
       <c r="AD11" t="n">
-        <v>1142926.55832013</v>
+        <v>1202860.711840752</v>
       </c>
       <c r="AE11" t="n">
-        <v>1563802.539454723</v>
+        <v>1645807.09240988</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.609363531318954e-06</v>
+        <v>3.019797224196032e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.597916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1414555.419899813</v>
+        <v>1488733.573415043</v>
       </c>
     </row>
     <row r="12">
@@ -32133,28 +32133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1142.574003449863</v>
+        <v>1202.508156970485</v>
       </c>
       <c r="AB12" t="n">
-        <v>1563.320158327601</v>
+        <v>1645.324711282758</v>
       </c>
       <c r="AC12" t="n">
-        <v>1414.119076550437</v>
+        <v>1488.297230065666</v>
       </c>
       <c r="AD12" t="n">
-        <v>1142574.003449863</v>
+        <v>1202508.156970485</v>
       </c>
       <c r="AE12" t="n">
-        <v>1563320.158327601</v>
+        <v>1645324.711282758</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.610549721502348e-06</v>
+        <v>3.022022982238558e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.589583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1414119.076550437</v>
+        <v>1488297.230065666</v>
       </c>
     </row>
     <row r="13">
@@ -32239,28 +32239,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1149.330766568958</v>
+        <v>1209.26492008958</v>
       </c>
       <c r="AB13" t="n">
-        <v>1572.565059714497</v>
+        <v>1654.569612669654</v>
       </c>
       <c r="AC13" t="n">
-        <v>1422.481657524268</v>
+        <v>1496.659811039498</v>
       </c>
       <c r="AD13" t="n">
-        <v>1149330.766568958</v>
+        <v>1209264.92008958</v>
       </c>
       <c r="AE13" t="n">
-        <v>1572565.059714498</v>
+        <v>1654569.612669654</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.610401447729424e-06</v>
+        <v>3.021744762483242e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.590624999999999</v>
       </c>
       <c r="AH13" t="n">
-        <v>1422481.657524268</v>
+        <v>1496659.811039498</v>
       </c>
     </row>
   </sheetData>
@@ -32536,28 +32536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.6898201837828</v>
+        <v>730.5657266171628</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.5086213064822</v>
+        <v>999.5922574427618</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.2748160449902</v>
+        <v>904.1925753289685</v>
       </c>
       <c r="AD2" t="n">
-        <v>675689.8201837828</v>
+        <v>730565.7266171628</v>
       </c>
       <c r="AE2" t="n">
-        <v>924508.6213064821</v>
+        <v>999592.2574427618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592201647621782e-06</v>
+        <v>3.98197548926472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.46458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>836274.8160449902</v>
+        <v>904192.5753289685</v>
       </c>
     </row>
   </sheetData>
@@ -32833,28 +32833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1923.049278380405</v>
+        <v>1998.661655854785</v>
       </c>
       <c r="AB2" t="n">
-        <v>2631.200861626599</v>
+        <v>2734.657052269713</v>
       </c>
       <c r="AC2" t="n">
-        <v>2380.08274430656</v>
+        <v>2473.66522131637</v>
       </c>
       <c r="AD2" t="n">
-        <v>1923049.278380405</v>
+        <v>1998661.655854785</v>
       </c>
       <c r="AE2" t="n">
-        <v>2631200.861626599</v>
+        <v>2734657.052269713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.180167254663266e-06</v>
+        <v>2.430298905341973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.41354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2380082.74430656</v>
+        <v>2473665.22131637</v>
       </c>
     </row>
     <row r="3">
@@ -32939,28 +32939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1148.177429338113</v>
+        <v>1212.975770329599</v>
       </c>
       <c r="AB3" t="n">
-        <v>1570.987012833609</v>
+        <v>1659.646961679207</v>
       </c>
       <c r="AC3" t="n">
-        <v>1421.054217222889</v>
+        <v>1501.252584985683</v>
       </c>
       <c r="AD3" t="n">
-        <v>1148177.429338113</v>
+        <v>1212975.770329599</v>
       </c>
       <c r="AE3" t="n">
-        <v>1570987.012833609</v>
+        <v>1659646.961679207</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.550857675043176e-06</v>
+        <v>3.193655556113562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1421054.217222889</v>
+        <v>1501252.584985683</v>
       </c>
     </row>
     <row r="4">
@@ -33045,28 +33045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>957.288672911045</v>
+        <v>1011.273156436739</v>
       </c>
       <c r="AB4" t="n">
-        <v>1309.804594872514</v>
+        <v>1383.668546859695</v>
       </c>
       <c r="AC4" t="n">
-        <v>1184.798682660175</v>
+        <v>1251.613162738407</v>
       </c>
       <c r="AD4" t="n">
-        <v>957288.6729110449</v>
+        <v>1011273.156436739</v>
       </c>
       <c r="AE4" t="n">
-        <v>1309804.594872514</v>
+        <v>1383668.546859695</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.681497470771779e-06</v>
+        <v>3.462679926429541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.11666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1184798.682660175</v>
+        <v>1251613.162738407</v>
       </c>
     </row>
     <row r="5">
@@ -33151,28 +33151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>893.3943199538535</v>
+        <v>958.1073200907679</v>
       </c>
       <c r="AB5" t="n">
-        <v>1222.381522336575</v>
+        <v>1310.924704059976</v>
       </c>
       <c r="AC5" t="n">
-        <v>1105.719145468013</v>
+        <v>1185.811890198869</v>
       </c>
       <c r="AD5" t="n">
-        <v>893394.3199538535</v>
+        <v>958107.3200907679</v>
       </c>
       <c r="AE5" t="n">
-        <v>1222381.522336575</v>
+        <v>1310924.704059975</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.717586714341806e-06</v>
+        <v>3.53699790872933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.903124999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>1105719.145468013</v>
+        <v>1185811.890198869</v>
       </c>
     </row>
     <row r="6">
@@ -33257,28 +33257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>896.916638112515</v>
+        <v>950.9863729842295</v>
       </c>
       <c r="AB6" t="n">
-        <v>1227.200913434965</v>
+        <v>1301.181510074795</v>
       </c>
       <c r="AC6" t="n">
-        <v>1110.078580644031</v>
+        <v>1176.998572972975</v>
       </c>
       <c r="AD6" t="n">
-        <v>896916.638112515</v>
+        <v>950986.3729842296</v>
       </c>
       <c r="AE6" t="n">
-        <v>1227200.913434965</v>
+        <v>1301181.510074795</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.71856651280977e-06</v>
+        <v>3.5390155915067e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.898958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1110078.580644031</v>
+        <v>1176998.572972975</v>
       </c>
     </row>
   </sheetData>
@@ -33554,28 +33554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2807.906825447601</v>
+        <v>2909.173250551992</v>
       </c>
       <c r="AB2" t="n">
-        <v>3841.901994684029</v>
+        <v>3980.459185071236</v>
       </c>
       <c r="AC2" t="n">
-        <v>3475.236260454556</v>
+        <v>3600.56974705744</v>
       </c>
       <c r="AD2" t="n">
-        <v>2807906.825447601</v>
+        <v>2909173.250551992</v>
       </c>
       <c r="AE2" t="n">
-        <v>3841901.994684029</v>
+        <v>3980459.185071236</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.810693467755309e-07</v>
+        <v>1.943679002388839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.69375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3475236.260454556</v>
+        <v>3600569.74705744</v>
       </c>
     </row>
     <row r="3">
@@ -33660,28 +33660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1485.30290427018</v>
+        <v>1552.870748242821</v>
       </c>
       <c r="AB3" t="n">
-        <v>2032.256960561938</v>
+        <v>2124.706265568202</v>
       </c>
       <c r="AC3" t="n">
-        <v>1838.301208536464</v>
+        <v>1921.927281626344</v>
       </c>
       <c r="AD3" t="n">
-        <v>1485302.90427018</v>
+        <v>1552870.748242822</v>
       </c>
       <c r="AE3" t="n">
-        <v>2032256.960561938</v>
+        <v>2124706.265568201</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.401011049537942e-06</v>
+        <v>2.775660831776754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.68958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1838301.208536464</v>
+        <v>1921927.281626344</v>
       </c>
     </row>
     <row r="4">
@@ -33766,28 +33766,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1224.251767261341</v>
+        <v>1291.734270379411</v>
       </c>
       <c r="AB4" t="n">
-        <v>1675.075278143092</v>
+        <v>1767.407816027158</v>
       </c>
       <c r="AC4" t="n">
-        <v>1515.208444580033</v>
+        <v>1598.728894637975</v>
       </c>
       <c r="AD4" t="n">
-        <v>1224251.767261341</v>
+        <v>1291734.270379411</v>
       </c>
       <c r="AE4" t="n">
-        <v>1675075.278143092</v>
+        <v>1767407.816027158</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.547542560947364e-06</v>
+        <v>3.065966734056625e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1515208.444580033</v>
+        <v>1598728.894637975</v>
       </c>
     </row>
     <row r="5">
@@ -33872,28 +33872,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1093.850498205406</v>
+        <v>1150.071783503253</v>
       </c>
       <c r="AB5" t="n">
-        <v>1496.65450892279</v>
+        <v>1573.57895177536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1353.815903158994</v>
+        <v>1423.398785149849</v>
       </c>
       <c r="AD5" t="n">
-        <v>1093850.498205406</v>
+        <v>1150071.783503253</v>
       </c>
       <c r="AE5" t="n">
-        <v>1496654.508922789</v>
+        <v>1573578.95177536</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.625524996203881e-06</v>
+        <v>3.220464295784969e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>1353815.903158994</v>
+        <v>1423398.785149849</v>
       </c>
     </row>
     <row r="6">
@@ -33978,28 +33978,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>993.7488600633274</v>
+        <v>1050.055396707195</v>
       </c>
       <c r="AB6" t="n">
-        <v>1359.691031444201</v>
+        <v>1436.732118949421</v>
       </c>
       <c r="AC6" t="n">
-        <v>1229.924027741514</v>
+        <v>1299.612421983081</v>
       </c>
       <c r="AD6" t="n">
-        <v>993748.8600633274</v>
+        <v>1050055.396707195</v>
       </c>
       <c r="AE6" t="n">
-        <v>1359691.031444201</v>
+        <v>1436732.118949421</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.672062901115027e-06</v>
+        <v>3.312664453590593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.794791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1229924.027741514</v>
+        <v>1299612.421983081</v>
       </c>
     </row>
     <row r="7">
@@ -34084,28 +34084,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>977.7451639505699</v>
+        <v>1034.051700594438</v>
       </c>
       <c r="AB7" t="n">
-        <v>1337.794068389483</v>
+        <v>1414.835155894703</v>
       </c>
       <c r="AC7" t="n">
-        <v>1210.116880108158</v>
+        <v>1279.805274349725</v>
       </c>
       <c r="AD7" t="n">
-        <v>977745.1639505699</v>
+        <v>1034051.700594438</v>
       </c>
       <c r="AE7" t="n">
-        <v>1337794.068389483</v>
+        <v>1414835.155894703</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.681024592263458e-06</v>
+        <v>3.330419213708568e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.742708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1210116.880108158</v>
+        <v>1279805.274349725</v>
       </c>
     </row>
     <row r="8">
@@ -34190,28 +34190,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>983.3875580194986</v>
+        <v>1039.694094663367</v>
       </c>
       <c r="AB8" t="n">
-        <v>1345.514240879449</v>
+        <v>1422.555328384669</v>
       </c>
       <c r="AC8" t="n">
-        <v>1217.100250171012</v>
+        <v>1286.788644412579</v>
       </c>
       <c r="AD8" t="n">
-        <v>983387.5580194986</v>
+        <v>1039694.094663366</v>
       </c>
       <c r="AE8" t="n">
-        <v>1345514.240879449</v>
+        <v>1422555.328384669</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.681024592263458e-06</v>
+        <v>3.330419213708568e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.742708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1217100.250171012</v>
+        <v>1286788.644412579</v>
       </c>
     </row>
   </sheetData>
